--- a/SNEAKER-tailieuthietke/Testcase/TestCases.xlsx
+++ b/SNEAKER-tailieuthietke/Testcase/TestCases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="22188" windowHeight="8580"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" windowWidth="16895" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Admin" sheetId="17" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="208">
   <si>
     <t>CASE</t>
   </si>
@@ -380,22 +380,19 @@
     <t>Nhập số lượng sản phẩm bằng 0</t>
   </si>
   <si>
-    <t>- Thông báo số lượng sản phẩm phải lớn hơn 0
-- Yêu cầu nhập lại</t>
+    <t>- Thông báo số lượng sản phẩm phải lớn hơn 0</t>
   </si>
   <si>
     <t>Nhập giá nhập sản phẩm là 0</t>
   </si>
   <si>
-    <t>- Thông báo giá nhập sản phẩm phải lớn hơn 0
-- Yêu cầu nhập lại</t>
+    <t>- Thông báo giá nhập sản phẩm phải lớn hơn 0</t>
   </si>
   <si>
     <t>Chọn 2 sản phẩm cùng id và cùng size</t>
   </si>
   <si>
-    <t>- Thông báo sản phẩm bị trùng size
-- Yêu cầu chọn lại</t>
+    <t>- Thông báo sản phẩm bị trùng size</t>
   </si>
   <si>
     <t>Nhập dữ liệu đúng</t>
@@ -412,6 +409,9 @@
     <t>Áp dụng sản phẩm khuyến mãi</t>
   </si>
   <si>
+    <t>Thông báolỗi</t>
+  </si>
+  <si>
     <t>Tìm kiếm sản phẩm</t>
   </si>
   <si>
@@ -433,8 +433,7 @@
     <t>Id: GIAYNIKE12_ADI</t>
   </si>
   <si>
-    <t>`- Thông báo sản phẩm áp dụng  trùng
-- Yêu cầu chọn lại</t>
+    <t>`- Thông báo sản phẩm áp dụng  trùng</t>
   </si>
   <si>
     <t>Chọn sản phẩm đúng</t>
@@ -449,18 +448,16 @@
     <t>Nhập size đã tồn tại</t>
   </si>
   <si>
+    <t>`- Thông báo size đã tồn tại</t>
+  </si>
+  <si>
+    <t>Nhập 1 size tồn tại và 1 size chưa tồn tại</t>
+  </si>
+  <si>
+    <t>12, 25</t>
+  </si>
+  <si>
     <t>`- Thông báo size đã tồn tại
-- Yêu cầu chọn lại</t>
-  </si>
-  <si>
-    <t>Nhập 1 size tồn tại và 1 size chưa tồn tại</t>
-  </si>
-  <si>
-    <t>12, 25</t>
-  </si>
-  <si>
-    <t>`- Thông báo size đã tồn tại
-- Yêu cầu chọn lại
 - Thông báo thêm size thành công</t>
   </si>
   <si>
@@ -515,9 +512,15 @@
     <t>Cập nhật nhà cung cấp</t>
   </si>
   <si>
+    <t>- Yêu cầu nhập lại</t>
+  </si>
+  <si>
     <t>0123</t>
   </si>
   <si>
+    <t>- Thông báo lỗi tên nhà cung cấp đã tồn tại</t>
+  </si>
+  <si>
     <t>"GymAnanas","Phạm Văn Đồng", "0123456888"</t>
   </si>
   <si>
@@ -527,9 +530,6 @@
     <t>Cập nhật thể loại</t>
   </si>
   <si>
-    <t xml:space="preserve">- </t>
-  </si>
-  <si>
     <t>"NONE"</t>
   </si>
   <si>
@@ -542,28 +542,19 @@
     <t>"1"</t>
   </si>
   <si>
-    <t>- Thông báo email sai định dạng
- - Yêu cầu nhập lại</t>
-  </si>
-  <si>
     <t>Nhập mật khẩu dưới 6 kí tự</t>
   </si>
   <si>
     <t>1 kí tự</t>
   </si>
   <si>
-    <t>- Thông báo password ít nhất 6 kí tự
- - Yêu cầu nhập lại</t>
-  </si>
-  <si>
     <t>Nhập email chưa có trong hệ thống</t>
   </si>
   <si>
     <t>"huynhthanh@gmail.com"</t>
   </si>
   <si>
-    <t>- Thông báo email không tồn tại trong hệ thống
-- Yêu cầu nhập lại</t>
+    <t>- Thông báo email không tồn tại trong hệ thống</t>
   </si>
   <si>
     <t>Nhập email đã tồn tại trong hệ thống</t>
@@ -585,10 +576,10 @@
     <t>Đổi mật khẩu</t>
   </si>
   <si>
+    <t xml:space="preserve"> - Yêu cầu nhập lại</t>
+  </si>
+  <si>
     <t>Nhập 3 cái input ít hơn 6 kí tự</t>
-  </si>
-  <si>
-    <t>- Thông báo nhập ít hơn 6 kí tự</t>
   </si>
   <si>
     <t>Nhập sai mật khẩu hiện tại</t>
@@ -615,6 +606,73 @@
     <t>"123456",
 "123457",
 "123457"</t>
+  </si>
+  <si>
+    <t>Nhập số điện thoại không đúng định dạng</t>
+  </si>
+  <si>
+    <t>"038662842",
+"03866284222",
+"1396628421"</t>
+  </si>
+  <si>
+    <t>"Huỳnh Thanh Phong","0396628421"</t>
+  </si>
+  <si>
+    <t>Thêm địa chỉ nhận hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Yêu cầu nhập lại
+</t>
+  </si>
+  <si>
+    <t>Hủy đơn</t>
+  </si>
+  <si>
+    <t>Chọn CONFIRM</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo thành công</t>
+  </si>
+  <si>
+    <t>Check out</t>
+  </si>
+  <si>
+    <t>Số lượng sản phẩm vượt quá số lượng trong lô</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>- Hiển thị thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Đi đến màn hình order</t>
+  </si>
+  <si>
+    <t>Đặt hàng</t>
+  </si>
+  <si>
+    <t>Chọn chi tiết giao hàng</t>
+  </si>
+  <si>
+    <t>"97 Man Thiện, 123, 97 Man Thiện, Phường Phúc Xá, Quận Ba Đình, thành phố Hà Nội"</t>
+  </si>
+  <si>
+    <t>- Hiển thị bảng địa chỉ</t>
+  </si>
+  <si>
+    <t>Chọn thêm địa chỉ</t>
+  </si>
+  <si>
+    <t>- Hiển thị modal thêm địa chỉ
+- Hiển thị thông báo thành công khi nhấn save</t>
+  </si>
+  <si>
+    <t>Nhập số điểm</t>
+  </si>
+  <si>
+    <t>Khi chọn xác nhận</t>
   </si>
 </sst>
 </file>
@@ -652,9 +710,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -667,8 +724,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -815,7 +873,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -837,6 +895,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,28 +1303,28 @@
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1284,16 +1348,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1302,93 +1366,93 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1438,7 +1502,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1459,6 +1559,27 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1471,36 +1592,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1510,13 +1601,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -1525,7 +1610,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -6530,6 +6621,977 @@
         <a:xfrm>
           <a:off x="8733155" y="259395595"/>
           <a:ext cx="2011680" cy="632460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>327660</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1431925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1837055</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1607820" y="3086100"/>
+          <a:ext cx="5158105" cy="1737995"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1188720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="6019800"/>
+          <a:ext cx="1661160" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1150620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="6050280"/>
+          <a:ext cx="1722120" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1160780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="6068060"/>
+          <a:ext cx="1607820" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1761490</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>2197100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="8336280"/>
+          <a:ext cx="5617210" cy="2052320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2301240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>769620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1219200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7635240" y="8961120"/>
+          <a:ext cx="1988820" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1059815</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2301875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1501140" y="12839700"/>
+          <a:ext cx="4892675" cy="2248535"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2179320</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1524000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1188720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3459480" y="16101060"/>
+          <a:ext cx="1661160" cy="1013460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1150620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="16131540"/>
+          <a:ext cx="1722120" cy="944880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1699260</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>223520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1160780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5295900" y="16149320"/>
+          <a:ext cx="1607820" cy="937260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1851660</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2301875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1478280" y="19202400"/>
+          <a:ext cx="5707380" cy="2164715"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2461260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>449580</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1836420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>868680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7795260" y="19514820"/>
+          <a:ext cx="1988820" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1167130</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2576195</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1554480" y="23972520"/>
+          <a:ext cx="4946650" cy="2347595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2499360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>563880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1912620</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>1066800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7833360" y="24307800"/>
+          <a:ext cx="2026920" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2133600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>982980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1569720</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>1790700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="29900880"/>
+          <a:ext cx="2049780" cy="807720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>2567940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1432560" y="29016960"/>
+          <a:ext cx="3101340" cy="2468880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>243840</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1531620</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>2788920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1676400" y="32796480"/>
+          <a:ext cx="3451860" cy="2545080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2019935</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>2530475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="37802185"/>
+          <a:ext cx="5928995" cy="2454910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>831215</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>1729740</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1417320" y="42090340"/>
+          <a:ext cx="4747895" cy="1501140"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>274320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1745615</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2251710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1508760" y="44912280"/>
+          <a:ext cx="5570855" cy="1977390"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2186940</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>520700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1600200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>985520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7520940" y="45158660"/>
+          <a:ext cx="2026920" cy="464820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1242060</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>579120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="51513740"/>
+          <a:ext cx="1950720" cy="449580"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>655320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>388620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>2186940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1935480" y="48247300"/>
+          <a:ext cx="3451860" cy="1798320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6869,8 +7931,8 @@
   <sheetPr/>
   <dimension ref="A1:F189"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="F193" sqref="F193"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="C88" sqref="C88:F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -6903,7 +7965,7 @@
       <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="51" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="8" t="s">
@@ -6931,7 +7993,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="52" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -6957,7 +8019,7 @@
       <c r="D6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="52" t="s">
         <v>11</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -6980,10 +8042,10 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="46" t="s">
+      <c r="D8" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="52" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -7009,7 +8071,7 @@
       <c r="D10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -7037,7 +8099,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="52" t="s">
         <v>7</v>
       </c>
       <c r="F12" s="6" t="s">
@@ -7063,7 +8125,7 @@
       <c r="D14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="52" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -7089,7 +8151,7 @@
       <c r="D16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="45" t="s">
+      <c r="E16" s="52" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="6" t="s">
@@ -7115,7 +8177,7 @@
       <c r="D18" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="45" t="s">
+      <c r="E18" s="52" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -7141,7 +8203,7 @@
       <c r="D20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="6" t="s">
@@ -7169,7 +8231,7 @@
         <v>19</v>
       </c>
       <c r="D22" s="6"/>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="52" t="s">
         <v>30</v>
       </c>
       <c r="F22" s="6" t="s">
@@ -7187,7 +8249,7 @@
       <c r="D23" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="45" t="s">
+      <c r="E23" s="52" t="s">
         <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
@@ -7213,7 +8275,7 @@
       <c r="D25" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="45" t="s">
+      <c r="E25" s="52" t="s">
         <v>36</v>
       </c>
       <c r="F25" s="6" t="s">
@@ -7239,7 +8301,7 @@
       <c r="D27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="45" t="s">
+      <c r="E27" s="52" t="s">
         <v>39</v>
       </c>
       <c r="F27" s="6" t="s">
@@ -7265,7 +8327,7 @@
       <c r="D29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="52" t="s">
         <v>42</v>
       </c>
       <c r="F29" s="6" t="s">
@@ -7291,7 +8353,7 @@
       <c r="D31" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="45" t="s">
+      <c r="E31" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F31" s="6" t="s">
@@ -7319,7 +8381,7 @@
         <v>19</v>
       </c>
       <c r="D33" s="6"/>
-      <c r="E33" s="45" t="s">
+      <c r="E33" s="52" t="s">
         <v>44</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -7345,10 +8407,10 @@
       <c r="D35" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="45" t="s">
+      <c r="E35" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F35" s="18" t="s">
+      <c r="F35" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7371,10 +8433,10 @@
       <c r="D37" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E37" s="45" t="s">
+      <c r="E37" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="18" t="s">
+      <c r="F37" s="30" t="s">
         <v>8</v>
       </c>
     </row>
@@ -7397,7 +8459,7 @@
       <c r="D39" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E39" s="45" t="s">
+      <c r="E39" s="52" t="s">
         <v>53</v>
       </c>
       <c r="F39" s="6" t="s">
@@ -7423,7 +8485,7 @@
       <c r="D41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="52" t="s">
         <v>56</v>
       </c>
       <c r="F41" s="6" t="s">
@@ -7449,7 +8511,7 @@
       <c r="D43" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E43" s="45" t="s">
+      <c r="E43" s="52" t="s">
         <v>59</v>
       </c>
       <c r="F43" s="6" t="s">
@@ -7475,7 +8537,7 @@
       <c r="D45" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E45" s="45" t="s">
+      <c r="E45" s="52" t="s">
         <v>62</v>
       </c>
       <c r="F45" s="6" t="s">
@@ -7501,7 +8563,7 @@
       <c r="D47" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="52" t="s">
         <v>65</v>
       </c>
       <c r="F47" s="6" t="s">
@@ -7527,7 +8589,7 @@
       <c r="D49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E49" s="45" t="s">
+      <c r="E49" s="52" t="s">
         <v>17</v>
       </c>
       <c r="F49" s="6" t="s">
@@ -7536,15 +8598,15 @@
     </row>
     <row r="50" ht="32.4" customHeight="1" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="19">
+      <c r="B50" s="31">
         <v>5</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
+      <c r="D50" s="32"/>
+      <c r="E50" s="32"/>
+      <c r="F50" s="32"/>
     </row>
     <row r="51" ht="46.2" customHeight="1" spans="1:6">
       <c r="A51" s="4"/>
@@ -7581,7 +8643,7 @@
       <c r="D53" s="6">
         <v>123</v>
       </c>
-      <c r="E53" s="45" t="s">
+      <c r="E53" s="52" t="s">
         <v>68</v>
       </c>
       <c r="F53" s="6" t="s">
@@ -7607,7 +8669,7 @@
       <c r="D55" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E55" s="45" t="s">
+      <c r="E55" s="52" t="s">
         <v>71</v>
       </c>
       <c r="F55" s="6" t="s">
@@ -7633,7 +8695,7 @@
       <c r="D57" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E57" s="45" t="s">
+      <c r="E57" s="52" t="s">
         <v>73</v>
       </c>
       <c r="F57" s="6" t="s">
@@ -7668,15 +8730,15 @@
     </row>
     <row r="60" ht="32.4" customHeight="1" spans="1:6">
       <c r="A60" s="4"/>
-      <c r="B60" s="19">
+      <c r="B60" s="31">
         <v>6</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C60" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
+      <c r="D60" s="34"/>
+      <c r="E60" s="34"/>
+      <c r="F60" s="35"/>
     </row>
     <row r="61" ht="82.2" customHeight="1" spans="1:6">
       <c r="A61" s="4"/>
@@ -7713,7 +8775,7 @@
       <c r="D63" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E63" s="45" t="s">
+      <c r="E63" s="52" t="s">
         <v>78</v>
       </c>
       <c r="F63" s="6" t="s">
@@ -7736,10 +8798,10 @@
       <c r="C65" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="D65" s="45" t="s">
+      <c r="D65" s="52" t="s">
         <v>80</v>
       </c>
-      <c r="E65" s="45" t="s">
+      <c r="E65" s="52" t="s">
         <v>81</v>
       </c>
       <c r="F65" s="6" t="s">
@@ -7765,7 +8827,7 @@
       <c r="D67" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="45" t="s">
+      <c r="E67" s="52" t="s">
         <v>84</v>
       </c>
       <c r="F67" s="6" t="s">
@@ -7788,10 +8850,10 @@
       <c r="C69" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D69" s="45" t="s">
+      <c r="D69" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E69" s="45" t="s">
+      <c r="E69" s="52" t="s">
         <v>87</v>
       </c>
       <c r="F69" s="6" t="s">
@@ -7814,10 +8876,10 @@
       <c r="C71" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="D71" s="45" t="s">
+      <c r="D71" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E71" s="45" t="s">
+      <c r="E71" s="52" t="s">
         <v>87</v>
       </c>
       <c r="F71" s="6" t="s">
@@ -7840,10 +8902,10 @@
       <c r="C73" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="45" t="s">
+      <c r="D73" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="E73" s="45" t="s">
+      <c r="E73" s="52" t="s">
         <v>87</v>
       </c>
       <c r="F73" s="6" t="s">
@@ -7866,13 +8928,13 @@
       <c r="C75" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D75" s="45" t="s">
+      <c r="D75" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E75" s="45" t="s">
+      <c r="E75" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F75" s="30">
         <v>0.9</v>
       </c>
     </row>
@@ -7904,15 +8966,15 @@
     </row>
     <row r="78" ht="82.2" customHeight="1" spans="1:6">
       <c r="A78" s="4"/>
-      <c r="B78" s="19">
+      <c r="B78" s="31">
         <v>7</v>
       </c>
-      <c r="C78" s="21" t="s">
+      <c r="C78" s="33" t="s">
         <v>94</v>
       </c>
-      <c r="D78" s="22"/>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
+      <c r="D78" s="34"/>
+      <c r="E78" s="34"/>
+      <c r="F78" s="35"/>
     </row>
     <row r="79" ht="82.2" customHeight="1" spans="1:6">
       <c r="A79" s="4"/>
@@ -7949,7 +9011,7 @@
       <c r="D81" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E81" s="45" t="s">
+      <c r="E81" s="52" t="s">
         <v>97</v>
       </c>
       <c r="F81" s="6" t="s">
@@ -7972,10 +9034,10 @@
       <c r="C83" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D83" s="45" t="s">
+      <c r="D83" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="45" t="s">
+      <c r="E83" s="52" t="s">
         <v>100</v>
       </c>
       <c r="F83" s="6" t="s">
@@ -8001,7 +9063,7 @@
       <c r="D85" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="E85" s="45" t="s">
+      <c r="E85" s="52" t="s">
         <v>103</v>
       </c>
       <c r="F85" s="6" t="s">
@@ -8036,15 +9098,15 @@
     </row>
     <row r="88" ht="82.2" customHeight="1" spans="1:6">
       <c r="A88" s="4"/>
-      <c r="B88" s="19">
+      <c r="B88" s="31">
         <v>8</v>
       </c>
-      <c r="C88" s="21" t="s">
+      <c r="C88" s="33" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="22"/>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="35"/>
     </row>
     <row r="89" ht="82.2" customHeight="1" spans="1:6">
       <c r="A89" s="4"/>
@@ -8081,7 +9143,7 @@
       <c r="D91" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E91" s="45" t="s">
+      <c r="E91" s="52" t="s">
         <v>106</v>
       </c>
       <c r="F91" s="6" t="s">
@@ -8107,7 +9169,7 @@
       <c r="D93" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="E93" s="45" t="s">
+      <c r="E93" s="52" t="s">
         <v>108</v>
       </c>
       <c r="F93" s="6" t="s">
@@ -8142,19 +9204,19 @@
     </row>
     <row r="96" ht="82.2" customHeight="1" spans="1:6">
       <c r="A96" s="4"/>
-      <c r="B96" s="24">
+      <c r="B96" s="37">
         <v>9</v>
       </c>
-      <c r="C96" s="25" t="s">
+      <c r="C96" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="D96" s="26"/>
-      <c r="E96" s="26"/>
-      <c r="F96" s="27"/>
+      <c r="D96" s="39"/>
+      <c r="E96" s="39"/>
+      <c r="F96" s="40"/>
     </row>
     <row r="97" ht="82.2" customHeight="1" spans="1:6">
       <c r="A97" s="4"/>
-      <c r="B97" s="28">
+      <c r="B97" s="41">
         <v>9.1</v>
       </c>
       <c r="C97" s="6" t="s">
@@ -8164,21 +9226,21 @@
       <c r="E97" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F97" s="18">
+      <c r="F97" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="98" ht="301" customHeight="1" spans="1:6">
       <c r="A98" s="4"/>
-      <c r="B98" s="29"/>
-      <c r="C98" s="30"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="32"/>
+      <c r="B98" s="42"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="5"/>
     </row>
     <row r="99" ht="82.2" customHeight="1" spans="1:6">
       <c r="A99" s="4"/>
-      <c r="B99" s="28">
+      <c r="B99" s="41">
         <v>9.2</v>
       </c>
       <c r="C99" s="6" t="s">
@@ -8187,7 +9249,7 @@
       <c r="D99" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E99" s="45" t="s">
+      <c r="E99" s="52" t="s">
         <v>112</v>
       </c>
       <c r="F99" s="6" t="s">
@@ -8196,15 +9258,15 @@
     </row>
     <row r="100" ht="153" customHeight="1" spans="1:6">
       <c r="A100" s="4"/>
-      <c r="B100" s="29"/>
-      <c r="C100" s="30"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="32"/>
+      <c r="B100" s="42"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="5"/>
     </row>
     <row r="101" ht="82.2" customHeight="1" spans="1:6">
       <c r="A101" s="4"/>
-      <c r="B101" s="28">
+      <c r="B101" s="41">
         <v>9.3</v>
       </c>
       <c r="C101" s="6" t="s">
@@ -8213,7 +9275,7 @@
       <c r="D101" s="6">
         <v>0</v>
       </c>
-      <c r="E101" s="45" t="s">
+      <c r="E101" s="52" t="s">
         <v>114</v>
       </c>
       <c r="F101" s="6" t="s">
@@ -8222,15 +9284,15 @@
     </row>
     <row r="102" ht="141" customHeight="1" spans="1:6">
       <c r="A102" s="4"/>
-      <c r="B102" s="29"/>
-      <c r="C102" s="30"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="32"/>
+      <c r="B102" s="42"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="5"/>
     </row>
     <row r="103" ht="82.2" customHeight="1" spans="1:6">
       <c r="A103" s="4"/>
-      <c r="B103" s="28">
+      <c r="B103" s="41">
         <v>9.4</v>
       </c>
       <c r="C103" s="6" t="s">
@@ -8239,7 +9301,7 @@
       <c r="D103" s="6">
         <v>0</v>
       </c>
-      <c r="E103" s="45" t="s">
+      <c r="E103" s="52" t="s">
         <v>116</v>
       </c>
       <c r="F103" s="6" t="s">
@@ -8248,15 +9310,15 @@
     </row>
     <row r="104" ht="130" customHeight="1" spans="1:6">
       <c r="A104" s="4"/>
-      <c r="B104" s="29"/>
-      <c r="C104" s="30"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="32"/>
+      <c r="B104" s="42"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="5"/>
     </row>
     <row r="105" ht="82.2" customHeight="1" spans="1:6">
       <c r="A105" s="4"/>
-      <c r="B105" s="28">
+      <c r="B105" s="41">
         <v>9.5</v>
       </c>
       <c r="C105" s="6" t="s">
@@ -8265,7 +9327,7 @@
       <c r="D105" s="6">
         <v>31</v>
       </c>
-      <c r="E105" s="45" t="s">
+      <c r="E105" s="52" t="s">
         <v>118</v>
       </c>
       <c r="F105" s="6" t="s">
@@ -8274,24 +9336,24 @@
     </row>
     <row r="106" ht="169" customHeight="1" spans="1:6">
       <c r="A106" s="4"/>
-      <c r="B106" s="29"/>
-      <c r="C106" s="30"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="32"/>
+      <c r="B106" s="42"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="5"/>
     </row>
     <row r="107" ht="82.2" customHeight="1" spans="1:6">
       <c r="A107" s="4"/>
-      <c r="B107" s="28">
+      <c r="B107" s="41">
         <v>9.6</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D107" s="45" t="s">
+      <c r="D107" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="E107" s="45" t="s">
+      <c r="E107" s="52" t="s">
         <v>121</v>
       </c>
       <c r="F107" s="6" t="s">
@@ -8300,11 +9362,11 @@
     </row>
     <row r="108" ht="212" customHeight="1" spans="1:6">
       <c r="A108" s="4"/>
-      <c r="B108" s="29"/>
-      <c r="C108" s="30"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="32"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="5"/>
     </row>
     <row r="109" ht="64" customHeight="1" spans="1:6">
       <c r="A109" s="4"/>
@@ -8326,19 +9388,19 @@
     </row>
     <row r="110" ht="40" customHeight="1" spans="1:6">
       <c r="A110" s="4"/>
-      <c r="B110" s="24">
+      <c r="B110" s="37">
         <v>10</v>
       </c>
-      <c r="C110" s="33" t="s">
+      <c r="C110" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="D110" s="34"/>
-      <c r="E110" s="34"/>
-      <c r="F110" s="35"/>
+      <c r="D110" s="39"/>
+      <c r="E110" s="39"/>
+      <c r="F110" s="40"/>
     </row>
     <row r="111" ht="36" customHeight="1" spans="1:6">
       <c r="A111" s="4"/>
-      <c r="B111" s="28">
+      <c r="B111" s="41">
         <v>10.1</v>
       </c>
       <c r="C111" s="6" t="s">
@@ -8346,7 +9408,7 @@
       </c>
       <c r="D111" s="6"/>
       <c r="E111" s="6" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>8</v>
@@ -8354,77 +9416,77 @@
     </row>
     <row r="112" ht="280" customHeight="1" spans="1:6">
       <c r="A112" s="4"/>
-      <c r="B112" s="29"/>
-      <c r="C112" s="30"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="32"/>
+      <c r="B112" s="42"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="5"/>
     </row>
     <row r="113" ht="75" customHeight="1" spans="1:6">
       <c r="A113" s="4"/>
-      <c r="B113" s="36">
+      <c r="B113" s="1">
         <v>10.2</v>
       </c>
-      <c r="C113" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="D113" s="47" t="s">
+      <c r="C113" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="47" t="s">
+      <c r="D113" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="F113" s="37" t="s">
+      <c r="E113" s="52" t="s">
+        <v>126</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="114" ht="227" customHeight="1" spans="1:6">
       <c r="A114" s="4"/>
-      <c r="B114" s="36"/>
-      <c r="C114" s="30"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="32"/>
+      <c r="B114" s="1"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="5"/>
     </row>
     <row r="115" ht="75" customHeight="1" spans="1:6">
       <c r="A115" s="4"/>
-      <c r="B115" s="36">
+      <c r="B115" s="1">
         <v>10.3</v>
       </c>
-      <c r="C115" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="D115" s="37" t="s">
+      <c r="C115" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E115" s="47" t="s">
+      <c r="D115" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E115" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F115" s="37" t="s">
+      <c r="F115" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="116" ht="172" customHeight="1" spans="1:6">
       <c r="A116" s="4"/>
-      <c r="B116" s="36"/>
-      <c r="C116" s="30"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="32"/>
+      <c r="B116" s="1"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="5"/>
     </row>
     <row r="117" ht="75" customHeight="1" spans="1:6">
       <c r="A117" s="4"/>
-      <c r="B117" s="28">
+      <c r="B117" s="41">
         <v>10.4</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D117" s="45" t="s">
         <v>129</v>
       </c>
+      <c r="D117" s="52" t="s">
+        <v>130</v>
+      </c>
       <c r="E117" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F117" s="6" t="s">
         <v>8</v>
@@ -8432,23 +9494,23 @@
     </row>
     <row r="118" ht="218" customHeight="1" spans="1:6">
       <c r="A118" s="4"/>
-      <c r="B118" s="29"/>
-      <c r="C118" s="30"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="32"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="5"/>
     </row>
     <row r="119" ht="50" customHeight="1" spans="1:6">
       <c r="A119" s="4"/>
-      <c r="B119" s="28">
+      <c r="B119" s="41">
         <v>10.5</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D119" s="6"/>
-      <c r="E119" s="45" t="s">
-        <v>132</v>
+      <c r="E119" s="52" t="s">
+        <v>133</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>8</v>
@@ -8456,11 +9518,11 @@
     </row>
     <row r="120" ht="148" customHeight="1" spans="1:6">
       <c r="A120" s="4"/>
-      <c r="B120" s="29"/>
-      <c r="C120" s="30"/>
-      <c r="D120" s="31"/>
-      <c r="E120" s="31"/>
-      <c r="F120" s="32"/>
+      <c r="B120" s="42"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="5"/>
     </row>
     <row r="121" ht="30" customHeight="1" spans="1:6">
       <c r="A121" s="4"/>
@@ -8482,19 +9544,19 @@
     </row>
     <row r="122" ht="61" customHeight="1" spans="1:6">
       <c r="A122" s="4"/>
-      <c r="B122" s="24">
+      <c r="B122" s="43">
         <v>11</v>
       </c>
-      <c r="C122" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="D122" s="34"/>
-      <c r="E122" s="34"/>
-      <c r="F122" s="35"/>
+      <c r="C122" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="D122" s="45"/>
+      <c r="E122" s="45"/>
+      <c r="F122" s="46"/>
     </row>
     <row r="123" ht="26" customHeight="1" spans="1:6">
       <c r="A123" s="4"/>
-      <c r="B123" s="28">
+      <c r="B123" s="41">
         <v>11.1</v>
       </c>
       <c r="C123" s="6" t="s">
@@ -8510,25 +9572,25 @@
     </row>
     <row r="124" ht="200" customHeight="1" spans="1:6">
       <c r="A124" s="4"/>
-      <c r="B124" s="29"/>
-      <c r="C124" s="30"/>
-      <c r="D124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="32"/>
+      <c r="B124" s="42"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="5"/>
     </row>
     <row r="125" ht="55" customHeight="1" spans="1:6">
       <c r="A125" s="4"/>
-      <c r="B125" s="28">
+      <c r="B125" s="41">
         <v>11.2</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D125" s="6">
         <v>12</v>
       </c>
       <c r="E125" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>8</v>
@@ -8536,51 +9598,51 @@
     </row>
     <row r="126" ht="279" customHeight="1" spans="1:6">
       <c r="A126" s="4"/>
-      <c r="B126" s="29"/>
-      <c r="C126" s="30"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="32"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="5"/>
     </row>
     <row r="127" ht="112" customHeight="1" spans="1:6">
       <c r="A127" s="4"/>
-      <c r="B127" s="28">
+      <c r="B127" s="41">
         <v>11.3</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D127" s="45" t="s">
         <v>137</v>
       </c>
+      <c r="D127" s="52" t="s">
+        <v>138</v>
+      </c>
       <c r="E127" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F127" s="18">
+        <v>139</v>
+      </c>
+      <c r="F127" s="30">
         <v>0.9</v>
       </c>
     </row>
     <row r="128" ht="241" customHeight="1" spans="1:6">
       <c r="A128" s="4"/>
-      <c r="B128" s="29"/>
-      <c r="C128" s="30"/>
-      <c r="D128" s="31"/>
-      <c r="E128" s="31"/>
-      <c r="F128" s="32"/>
+      <c r="B128" s="42"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="5"/>
     </row>
     <row r="129" ht="27" customHeight="1" spans="1:6">
       <c r="A129" s="4"/>
-      <c r="B129" s="28">
+      <c r="B129" s="41">
         <v>11.4</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D129" s="6">
         <v>26</v>
       </c>
-      <c r="E129" s="45" t="s">
-        <v>140</v>
+      <c r="E129" s="52" t="s">
+        <v>141</v>
       </c>
       <c r="F129" s="6" t="s">
         <v>8</v>
@@ -8588,11 +9650,11 @@
     </row>
     <row r="130" ht="206" customHeight="1" spans="1:6">
       <c r="A130" s="4"/>
-      <c r="B130" s="29"/>
-      <c r="C130" s="30"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="32"/>
+      <c r="B130" s="42"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="5"/>
     </row>
     <row r="131" ht="33" customHeight="1" spans="1:6">
       <c r="A131" s="4"/>
@@ -8614,29 +9676,29 @@
     </row>
     <row r="132" ht="101" customHeight="1" spans="1:6">
       <c r="A132" s="4"/>
-      <c r="B132" s="24">
+      <c r="B132" s="37">
         <v>12</v>
       </c>
-      <c r="C132" s="33" t="s">
-        <v>141</v>
-      </c>
-      <c r="D132" s="34"/>
-      <c r="E132" s="34"/>
-      <c r="F132" s="35"/>
+      <c r="C132" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D132" s="39"/>
+      <c r="E132" s="39"/>
+      <c r="F132" s="40"/>
     </row>
     <row r="133" ht="93" customHeight="1" spans="1:6">
       <c r="A133" s="4"/>
-      <c r="B133" s="28">
+      <c r="B133" s="41">
         <v>12.1</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D133" s="6">
         <v>0</v>
       </c>
-      <c r="E133" s="45" t="s">
-        <v>143</v>
+      <c r="E133" s="52" t="s">
+        <v>144</v>
       </c>
       <c r="F133" s="6" t="s">
         <v>8</v>
@@ -8644,77 +9706,77 @@
     </row>
     <row r="134" ht="255" customHeight="1" spans="1:6">
       <c r="A134" s="4"/>
-      <c r="B134" s="29"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="32"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="5"/>
     </row>
     <row r="135" ht="51" customHeight="1" spans="1:6">
       <c r="A135" s="4"/>
-      <c r="B135" s="36">
+      <c r="B135" s="1">
         <v>12.2</v>
       </c>
-      <c r="C135" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D135" s="47" t="s">
+      <c r="C135" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="E135" s="47" t="s">
+      <c r="D135" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="E135" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F135" s="37" t="s">
+      <c r="F135" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="136" ht="194" customHeight="1" spans="1:6">
       <c r="A136" s="4"/>
-      <c r="B136" s="36"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="31"/>
-      <c r="E136" s="31"/>
-      <c r="F136" s="32"/>
+      <c r="B136" s="1"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="5"/>
     </row>
     <row r="137" ht="51" customHeight="1" spans="1:6">
       <c r="A137" s="4"/>
-      <c r="B137" s="38">
+      <c r="B137" s="47">
         <v>12.3</v>
       </c>
-      <c r="C137" s="37" t="s">
+      <c r="C137" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D137" s="37" t="s">
+      <c r="D137" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="E137" s="47" t="s">
+      <c r="E137" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F137" s="37" t="s">
+      <c r="F137" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="138" ht="213" customHeight="1" spans="1:6">
       <c r="A138" s="4"/>
-      <c r="B138" s="38"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="32"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="5"/>
     </row>
     <row r="139" ht="51" customHeight="1" spans="1:6">
       <c r="A139" s="4"/>
-      <c r="B139" s="28">
+      <c r="B139" s="41">
         <v>12.4</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D139" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E139" s="45" t="s">
+      <c r="D139" s="52" t="s">
         <v>148</v>
+      </c>
+      <c r="E139" s="52" t="s">
+        <v>149</v>
       </c>
       <c r="F139" s="6" t="s">
         <v>8</v>
@@ -8722,25 +9784,25 @@
     </row>
     <row r="140" ht="180" customHeight="1" spans="1:6">
       <c r="A140" s="4"/>
-      <c r="B140" s="29"/>
-      <c r="C140" s="30"/>
-      <c r="D140" s="31"/>
-      <c r="E140" s="31"/>
-      <c r="F140" s="32"/>
+      <c r="B140" s="42"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="5"/>
     </row>
     <row r="141" ht="56" customHeight="1" spans="1:6">
       <c r="A141" s="4"/>
-      <c r="B141" s="28">
+      <c r="B141" s="41">
         <v>12.5</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D141" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="E141" s="45" t="s">
+      <c r="D141" s="52" t="s">
         <v>151</v>
+      </c>
+      <c r="E141" s="52" t="s">
+        <v>152</v>
       </c>
       <c r="F141" s="6" t="s">
         <v>8</v>
@@ -8748,25 +9810,25 @@
     </row>
     <row r="142" ht="114" customHeight="1" spans="1:6">
       <c r="A142" s="4"/>
-      <c r="B142" s="29"/>
-      <c r="C142" s="30"/>
-      <c r="D142" s="31"/>
-      <c r="E142" s="31"/>
-      <c r="F142" s="32"/>
+      <c r="B142" s="42"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="5"/>
     </row>
     <row r="143" ht="50" customHeight="1" spans="1:6">
       <c r="A143" s="4"/>
-      <c r="B143" s="28">
+      <c r="B143" s="41">
         <v>12.6</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>91</v>
       </c>
       <c r="D143" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E143" s="45" t="s">
         <v>153</v>
+      </c>
+      <c r="E143" s="52" t="s">
+        <v>154</v>
       </c>
       <c r="F143" s="6" t="s">
         <v>8</v>
@@ -8774,11 +9836,11 @@
     </row>
     <row r="144" ht="230" customHeight="1" spans="1:6">
       <c r="A144" s="4"/>
-      <c r="B144" s="29"/>
-      <c r="C144" s="30"/>
-      <c r="D144" s="31"/>
-      <c r="E144" s="31"/>
-      <c r="F144" s="32"/>
+      <c r="B144" s="42"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="5"/>
     </row>
     <row r="145" ht="49" customHeight="1" spans="1:6">
       <c r="A145" s="4"/>
@@ -8800,15 +9862,15 @@
     </row>
     <row r="146" ht="34" customHeight="1" spans="1:6">
       <c r="A146" s="4"/>
-      <c r="B146" s="24">
+      <c r="B146" s="37">
         <v>13</v>
       </c>
-      <c r="C146" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D146" s="34"/>
-      <c r="E146" s="34"/>
-      <c r="F146" s="35"/>
+      <c r="C146" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="D146" s="39"/>
+      <c r="E146" s="39"/>
+      <c r="F146" s="40"/>
     </row>
     <row r="147" ht="48" customHeight="1" spans="1:6">
       <c r="A147" s="4"/>
@@ -8819,8 +9881,8 @@
         <v>6</v>
       </c>
       <c r="D147" s="6"/>
-      <c r="E147" s="45" t="s">
-        <v>151</v>
+      <c r="E147" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>8</v>
@@ -8829,24 +9891,24 @@
     <row r="148" ht="207" customHeight="1" spans="1:6">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
-      <c r="C148" s="30"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="32"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="5"/>
     </row>
     <row r="149" ht="89" customHeight="1" spans="1:6">
       <c r="A149" s="4"/>
-      <c r="B149" s="28">
+      <c r="B149" s="41">
         <v>13.2</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="D149" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="E149" s="45" t="s">
-        <v>68</v>
+      <c r="D149" s="52" t="s">
+        <v>157</v>
+      </c>
+      <c r="E149" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>8</v>
@@ -8854,15 +9916,15 @@
     </row>
     <row r="150" ht="79" customHeight="1" spans="1:6">
       <c r="A150" s="4"/>
-      <c r="B150" s="29"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="31"/>
-      <c r="E150" s="31"/>
-      <c r="F150" s="32"/>
+      <c r="B150" s="42"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="5"/>
     </row>
     <row r="151" ht="56" customHeight="1" spans="1:6">
       <c r="A151" s="4"/>
-      <c r="B151" s="28">
+      <c r="B151" s="41">
         <v>13.3</v>
       </c>
       <c r="C151" s="6" t="s">
@@ -8871,8 +9933,8 @@
       <c r="D151" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E151" s="45" t="s">
-        <v>71</v>
+      <c r="E151" s="52" t="s">
+        <v>158</v>
       </c>
       <c r="F151" s="6" t="s">
         <v>8</v>
@@ -8880,25 +9942,25 @@
     </row>
     <row r="152" ht="92" customHeight="1" spans="1:6">
       <c r="A152" s="4"/>
-      <c r="B152" s="29"/>
-      <c r="C152" s="30"/>
-      <c r="D152" s="31"/>
-      <c r="E152" s="31"/>
-      <c r="F152" s="32"/>
+      <c r="B152" s="42"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="5"/>
     </row>
     <row r="153" ht="58" customHeight="1" spans="1:6">
       <c r="A153" s="4"/>
-      <c r="B153" s="28">
+      <c r="B153" s="41">
         <v>13.4</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>119</v>
       </c>
       <c r="D153" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E153" s="45" t="s">
-        <v>157</v>
+        <v>159</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>160</v>
       </c>
       <c r="F153" s="6" t="s">
         <v>8</v>
@@ -8906,11 +9968,11 @@
     </row>
     <row r="154" ht="216" customHeight="1" spans="1:6">
       <c r="A154" s="4"/>
-      <c r="B154" s="29"/>
-      <c r="C154" s="30"/>
-      <c r="D154" s="31"/>
-      <c r="E154" s="31"/>
-      <c r="F154" s="32"/>
+      <c r="B154" s="42"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="5"/>
     </row>
     <row r="155" ht="40" customHeight="1" spans="1:6">
       <c r="A155" s="4"/>
@@ -8932,66 +9994,66 @@
     </row>
     <row r="156" ht="30" customHeight="1" spans="1:6">
       <c r="A156" s="4"/>
-      <c r="B156" s="24">
+      <c r="B156" s="37">
         <v>14</v>
       </c>
-      <c r="C156" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="D156" s="34"/>
-      <c r="E156" s="34"/>
-      <c r="F156" s="35"/>
+      <c r="C156" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="D156" s="39"/>
+      <c r="E156" s="39"/>
+      <c r="F156" s="40"/>
     </row>
     <row r="157" ht="26" customHeight="1" spans="1:6">
-      <c r="A157" s="39"/>
-      <c r="B157" s="38">
+      <c r="A157" s="48"/>
+      <c r="B157" s="47">
         <v>14.1</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="6"/>
-      <c r="E157" s="45" t="s">
-        <v>159</v>
+      <c r="E157" s="52" t="s">
+        <v>156</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="158" ht="165" customHeight="1" spans="1:6">
-      <c r="A158" s="40"/>
-      <c r="B158" s="38"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="31"/>
-      <c r="E158" s="31"/>
-      <c r="F158" s="32"/>
+      <c r="A158" s="49"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="5"/>
     </row>
     <row r="159" ht="45" customHeight="1" spans="2:6">
-      <c r="B159" s="41">
+      <c r="B159" s="13">
         <v>14.2</v>
       </c>
-      <c r="C159" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="D159" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="E159" s="47" t="s">
+      <c r="C159" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D159" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E159" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F159" s="37" t="s">
+      <c r="F159" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="160" ht="168" customHeight="1" spans="2:6">
-      <c r="B160" s="42"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="31"/>
-      <c r="E160" s="31"/>
-      <c r="F160" s="32"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="5"/>
     </row>
     <row r="161" ht="38" customHeight="1" spans="2:6">
-      <c r="B161" s="38">
+      <c r="B161" s="47">
         <v>14.3</v>
       </c>
       <c r="C161" s="6" t="s">
@@ -9008,24 +10070,24 @@
       </c>
     </row>
     <row r="162" ht="39" customHeight="1" spans="2:6">
-      <c r="B162" s="43">
+      <c r="B162" s="50">
         <v>15</v>
       </c>
-      <c r="C162" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D162" s="34"/>
-      <c r="E162" s="34"/>
-      <c r="F162" s="35"/>
+      <c r="C162" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="D162" s="39"/>
+      <c r="E162" s="39"/>
+      <c r="F162" s="40"/>
     </row>
     <row r="163" ht="28" customHeight="1" spans="2:6">
-      <c r="B163" s="38">
+      <c r="B163" s="47">
         <v>15.1</v>
       </c>
-      <c r="C163" s="37" t="s">
+      <c r="C163" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D163" s="37"/>
+      <c r="D163" s="6"/>
       <c r="E163" s="6" t="s">
         <v>7</v>
       </c>
@@ -9034,134 +10096,134 @@
       </c>
     </row>
     <row r="164" ht="208" customHeight="1" spans="2:6">
-      <c r="B164" s="38"/>
-      <c r="C164" s="30"/>
-      <c r="D164" s="31"/>
-      <c r="E164" s="31"/>
-      <c r="F164" s="32"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="5"/>
     </row>
     <row r="165" ht="37" customHeight="1" spans="2:6">
-      <c r="B165" s="41">
+      <c r="B165" s="13">
         <v>15.2</v>
       </c>
-      <c r="C165" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="D165" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="E165" s="47" t="s">
+      <c r="C165" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="F165" s="37" t="s">
+      <c r="D165" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E165" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F165" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="166" ht="122" customHeight="1" spans="2:6">
-      <c r="B166" s="42"/>
-      <c r="C166" s="30"/>
-      <c r="D166" s="31"/>
-      <c r="E166" s="31"/>
-      <c r="F166" s="32"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="5"/>
     </row>
     <row r="167" ht="33" customHeight="1" spans="2:6">
-      <c r="B167" s="41">
+      <c r="B167" s="13">
         <v>15.3</v>
       </c>
-      <c r="C167" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D167" s="37" t="s">
+      <c r="C167" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="E167" s="47" t="s">
+      <c r="D167" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="F167" s="37" t="s">
+      <c r="E167" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="168" ht="99" customHeight="1" spans="2:6">
-      <c r="B168" s="42"/>
-      <c r="C168" s="30"/>
-      <c r="D168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="32"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="5"/>
     </row>
     <row r="169" ht="55" customHeight="1" spans="2:6">
-      <c r="B169" s="41">
+      <c r="B169" s="13">
         <v>15.4</v>
       </c>
-      <c r="C169" s="37" t="s">
+      <c r="C169" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="D169" s="47" t="s">
+      <c r="D169" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="E169" s="47" t="s">
+      <c r="E169" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="F169" s="37" t="s">
+      <c r="F169" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="170" ht="89" customHeight="1" spans="2:6">
-      <c r="B170" s="42"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="31"/>
-      <c r="E170" s="31"/>
-      <c r="F170" s="32"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="5"/>
     </row>
     <row r="171" ht="57" customHeight="1" spans="2:6">
-      <c r="B171" s="41">
+      <c r="B171" s="13">
         <v>15.5</v>
       </c>
-      <c r="C171" s="37" t="s">
+      <c r="C171" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="D171" s="47" t="s">
+      <c r="D171" s="52" t="s">
         <v>172</v>
       </c>
-      <c r="E171" s="47" t="s">
+      <c r="E171" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="F171" s="37" t="s">
+      <c r="F171" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="172" ht="95" customHeight="1" spans="2:6">
-      <c r="B172" s="42"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="32"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="5"/>
     </row>
     <row r="173" ht="77" customHeight="1" spans="2:6">
-      <c r="B173" s="41">
+      <c r="B173" s="13">
         <v>15.6</v>
       </c>
-      <c r="C173" s="37" t="s">
+      <c r="C173" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="D173" s="47" t="s">
+      <c r="D173" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="E173" s="47" t="s">
+      <c r="E173" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F173" s="37" t="s">
+      <c r="F173" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="174" ht="167" customHeight="1" spans="2:6">
-      <c r="B174" s="42"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="31"/>
-      <c r="E174" s="31"/>
-      <c r="F174" s="32"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="5"/>
     </row>
     <row r="175" ht="52" customHeight="1" spans="2:6">
-      <c r="B175" s="38">
+      <c r="B175" s="47">
         <v>15.7</v>
       </c>
       <c r="C175" s="6" t="s">
@@ -9178,136 +10240,136 @@
       </c>
     </row>
     <row r="176" ht="52" customHeight="1" spans="2:6">
-      <c r="B176" s="43">
+      <c r="B176" s="50">
         <v>16</v>
       </c>
-      <c r="C176" s="33" t="s">
+      <c r="C176" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D176" s="34"/>
-      <c r="E176" s="34"/>
-      <c r="F176" s="35"/>
+      <c r="D176" s="39"/>
+      <c r="E176" s="39"/>
+      <c r="F176" s="40"/>
     </row>
     <row r="177" ht="34" customHeight="1" spans="2:6">
-      <c r="B177" s="38">
+      <c r="B177" s="47">
         <v>16.1</v>
       </c>
-      <c r="C177" s="37" t="s">
+      <c r="C177" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D177" s="37"/>
-      <c r="E177" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="F177" s="37" t="s">
+      <c r="D177" s="6"/>
+      <c r="E177" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="F177" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="178" ht="171" customHeight="1" spans="2:6">
-      <c r="B178" s="38"/>
-      <c r="C178" s="30"/>
-      <c r="D178" s="31"/>
-      <c r="E178" s="31"/>
-      <c r="F178" s="32"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="5"/>
     </row>
     <row r="179" ht="43" customHeight="1" spans="2:6">
-      <c r="B179" s="38">
+      <c r="B179" s="47">
         <v>16.2</v>
       </c>
-      <c r="C179" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="D179" s="37" t="s">
+      <c r="C179" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D179" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E179" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="E179" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="F179" s="37" t="s">
+      <c r="F179" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="180" ht="141" customHeight="1" spans="2:6">
-      <c r="B180" s="38"/>
-      <c r="C180" s="30"/>
-      <c r="D180" s="31"/>
-      <c r="E180" s="31"/>
-      <c r="F180" s="32"/>
+      <c r="B180" s="47"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="5"/>
     </row>
     <row r="181" ht="52" customHeight="1" spans="2:6">
-      <c r="B181" s="41">
+      <c r="B181" s="13">
         <v>16.3</v>
       </c>
-      <c r="C181" s="37" t="s">
+      <c r="C181" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="D181" s="47" t="s">
+      <c r="D181" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="E181" s="47" t="s">
+      <c r="E181" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="F181" s="37" t="s">
+      <c r="F181" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="182" ht="120" customHeight="1" spans="2:6">
-      <c r="B182" s="42"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="31"/>
-      <c r="E182" s="31"/>
-      <c r="F182" s="32"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="15"/>
+      <c r="D182" s="16"/>
+      <c r="E182" s="16"/>
+      <c r="F182" s="5"/>
     </row>
     <row r="183" ht="49" customHeight="1" spans="2:6">
-      <c r="B183" s="41">
+      <c r="B183" s="13">
         <v>16.4</v>
       </c>
-      <c r="C183" s="37" t="s">
+      <c r="C183" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D183" s="37" t="s">
+      <c r="D183" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="E183" s="47" t="s">
+      <c r="E183" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="F183" s="37" t="s">
+      <c r="F183" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="184" ht="99" customHeight="1" spans="2:6">
-      <c r="B184" s="42"/>
-      <c r="C184" s="30"/>
-      <c r="D184" s="31"/>
-      <c r="E184" s="31"/>
-      <c r="F184" s="32"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="16"/>
+      <c r="E184" s="16"/>
+      <c r="F184" s="5"/>
     </row>
     <row r="185" ht="57" customHeight="1" spans="2:6">
-      <c r="B185" s="41">
+      <c r="B185" s="13">
         <v>16.5</v>
       </c>
-      <c r="C185" s="37" t="s">
+      <c r="C185" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D185" s="52" t="s">
         <v>186</v>
       </c>
-      <c r="E185" s="47" t="s">
+      <c r="E185" s="52" t="s">
         <v>175</v>
       </c>
-      <c r="F185" s="37" t="s">
+      <c r="F185" s="6" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="186" ht="150" customHeight="1" spans="2:6">
-      <c r="B186" s="42"/>
-      <c r="C186" s="30"/>
-      <c r="D186" s="31"/>
-      <c r="E186" s="31"/>
-      <c r="F186" s="32"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="16"/>
+      <c r="E186" s="16"/>
+      <c r="F186" s="5"/>
     </row>
     <row r="187" ht="40" customHeight="1" spans="2:6">
-      <c r="B187" s="38">
+      <c r="B187" s="47">
         <v>16.6</v>
       </c>
       <c r="C187" s="6" t="s">
@@ -9324,18 +10386,18 @@
       </c>
     </row>
     <row r="188" customHeight="1" spans="2:6">
-      <c r="B188" s="38"/>
-      <c r="C188" s="37"/>
-      <c r="D188" s="37"/>
-      <c r="E188" s="37"/>
-      <c r="F188" s="37"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
+      <c r="E188" s="6"/>
+      <c r="F188" s="6"/>
     </row>
     <row r="189" customHeight="1" spans="2:6">
-      <c r="B189" s="38"/>
-      <c r="C189" s="37"/>
-      <c r="D189" s="37"/>
-      <c r="E189" s="37"/>
-      <c r="F189" s="37"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
+      <c r="E189" s="6"/>
+      <c r="F189" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="161">
@@ -9514,10 +10576,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F145"/>
+  <dimension ref="A1:F154"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C41" sqref="B41:F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="5"/>
@@ -9541,29 +10603,51 @@
     </row>
     <row r="2" ht="60.6" customHeight="1" spans="1:6">
       <c r="A2" s="4"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="3" ht="60.6" customHeight="1" spans="1:6">
       <c r="A3" s="4"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="9">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
     </row>
     <row r="4" ht="53.4" customHeight="1" spans="1:6">
       <c r="A4" s="4"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="6"/>
+      <c r="B4" s="13">
+        <v>1.1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" ht="124.2" customHeight="1" spans="1:6">
+      <c r="E4" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="161" customHeight="1" spans="1:6">
       <c r="A5" s="4"/>
       <c r="B5" s="14"/>
       <c r="C5" s="15"/>
@@ -9571,13 +10655,23 @@
       <c r="E5" s="16"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" ht="60.6" customHeight="1" spans="1:6">
+    <row r="6" ht="64" customHeight="1" spans="1:6">
       <c r="A6" s="4"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
+      <c r="B6" s="13">
+        <v>1.2</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E6" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" ht="124.2" customHeight="1" spans="1:6">
       <c r="A7" s="4"/>
@@ -9589,15 +10683,23 @@
     </row>
     <row r="8" ht="60.6" customHeight="1" spans="1:6">
       <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="17">
+        <v>1.3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>160</v>
+      </c>
       <c r="F8" s="6"/>
     </row>
-    <row r="9" ht="124.2" customHeight="1" spans="1:6">
+    <row r="9" ht="180" customHeight="1" spans="1:6">
       <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
@@ -9605,27 +10707,49 @@
     </row>
     <row r="10" ht="60.6" customHeight="1" spans="1:6">
       <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
+      <c r="B10" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" ht="60.6" customHeight="1" spans="1:6">
       <c r="A11" s="4"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>190</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
     </row>
     <row r="12" ht="60.6" customHeight="1" spans="1:6">
       <c r="A12" s="4"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="6"/>
+      <c r="B12" s="13">
+        <v>2.1</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
+      <c r="E12" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="13" ht="186.6" customHeight="1" spans="1:6">
       <c r="A13" s="4"/>
@@ -9637,11 +10761,21 @@
     </row>
     <row r="14" ht="60.6" customHeight="1" spans="1:6">
       <c r="A14" s="4"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+      <c r="B14" s="13">
+        <v>2.2</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" ht="186.6" customHeight="1" spans="1:6">
       <c r="A15" s="4"/>
@@ -9653,11 +10787,19 @@
     </row>
     <row r="16" ht="60.6" customHeight="1" spans="1:6">
       <c r="A16" s="4"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="13">
+        <v>2.3</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+      <c r="E16" s="52" t="s">
+        <v>160</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="17" ht="186.6" customHeight="1" spans="1:6">
       <c r="A17" s="4"/>
@@ -9669,595 +10811,713 @@
     </row>
     <row r="18" ht="60.6" customHeight="1" spans="1:6">
       <c r="A18" s="4"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" ht="186.6" customHeight="1" spans="1:6">
+      <c r="B18" s="5">
+        <v>2.4</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" ht="60.6" customHeight="1" spans="1:6">
       <c r="A19" s="4"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="9">
+        <v>3</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" ht="60.6" customHeight="1" spans="1:6">
       <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>193</v>
+      </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-    </row>
-    <row r="21" ht="60.6" customHeight="1" spans="1:6">
+      <c r="E20" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" ht="225.6" customHeight="1" spans="1:6">
       <c r="A21" s="4"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="5"/>
     </row>
     <row r="22" ht="60.6" customHeight="1" spans="1:6">
       <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
+      <c r="B22" s="5">
+        <v>3.2</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" ht="60.6" customHeight="1" spans="1:6">
       <c r="A23" s="4"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B23" s="9">
+        <v>4</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+    </row>
+    <row r="24" ht="60.6" customHeight="1" spans="1:6">
       <c r="A24" s="4"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B24" s="13">
+        <v>4.1</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D24" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" ht="225.6" customHeight="1" spans="1:6">
       <c r="A25" s="4"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" ht="60.6" customHeight="1" spans="1:6">
       <c r="A26" s="4"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="5"/>
-    </row>
-    <row r="27" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B26" s="13">
+        <v>4.2</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" ht="225.6" customHeight="1" spans="1:6">
       <c r="A27" s="4"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" ht="60.6" customHeight="1" spans="1:6">
       <c r="A28" s="4"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="5"/>
+      <c r="B28" s="5">
+        <v>4.3</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="29" ht="60.6" customHeight="1" spans="1:6">
       <c r="A29" s="4"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B29" s="9">
+        <v>5</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+    </row>
+    <row r="30" ht="60.6" customHeight="1" spans="1:6">
       <c r="A30" s="4"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B30" s="13">
+        <v>5.1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="225.6" customHeight="1" spans="1:6">
       <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" ht="100" customHeight="1" spans="1:6">
       <c r="A32" s="4"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B32" s="20">
+        <v>5.2</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D32" s="52" t="s">
+        <v>202</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>203</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" ht="158" customHeight="1" spans="1:6">
       <c r="A33" s="4"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B33" s="19"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+    </row>
+    <row r="34" ht="60.6" customHeight="1" spans="1:6">
       <c r="A34" s="4"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="5"/>
-    </row>
-    <row r="35" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B34" s="20">
+        <v>5.3</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" ht="193" customHeight="1" spans="1:6">
       <c r="A35" s="4"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B35" s="19"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="23"/>
+    </row>
+    <row r="36" ht="60.6" customHeight="1" spans="1:6">
       <c r="A36" s="4"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="37" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B36" s="27">
+        <v>5.4</v>
+      </c>
+      <c r="C36" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="D36" s="29">
+        <v>12000</v>
+      </c>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" ht="217" customHeight="1" spans="1:6">
       <c r="A37" s="4"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B37" s="27"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" ht="60.6" customHeight="1" spans="1:6">
       <c r="A38" s="4"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
-      <c r="F38" s="5"/>
+      <c r="B38" s="27">
+        <v>5.5</v>
+      </c>
+      <c r="C38" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="F38" s="29" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="39" ht="60.6" customHeight="1" spans="1:6">
       <c r="A39" s="4"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-    </row>
-    <row r="40" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B39" s="27"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+    </row>
+    <row r="40" ht="60.6" customHeight="1" spans="1:6">
       <c r="A40" s="4"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="5"/>
+      <c r="B40" s="5">
+        <v>5.6</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="41" ht="60.6" customHeight="1" spans="1:6">
       <c r="A41" s="4"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-    </row>
-    <row r="42" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+    </row>
+    <row r="42" ht="60.6" customHeight="1" spans="1:6">
       <c r="A42" s="4"/>
-      <c r="B42" s="14"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="5"/>
-    </row>
-    <row r="43" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B42" s="13"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" ht="225.6" customHeight="1" spans="1:6">
       <c r="A43" s="4"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" ht="225.6" customHeight="1" spans="1:6">
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" ht="60.6" customHeight="1" spans="1:6">
       <c r="A44" s="4"/>
-      <c r="B44" s="14"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B44" s="13"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="30"/>
+    </row>
+    <row r="45" ht="225.6" customHeight="1" spans="1:6">
       <c r="A45" s="4"/>
-      <c r="B45" s="13"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-    </row>
-    <row r="46" ht="83.4" customHeight="1" spans="1:6">
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" ht="60.6" customHeight="1" spans="1:6">
       <c r="A46" s="4"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B46" s="13"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="30"/>
+    </row>
+    <row r="47" ht="225.6" customHeight="1" spans="1:6">
       <c r="A47" s="4"/>
-      <c r="B47" s="13"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-    </row>
-    <row r="48" ht="234.6" customHeight="1" spans="1:6">
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" ht="60.6" customHeight="1" spans="1:6">
       <c r="A48" s="4"/>
-      <c r="B48" s="14"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B48" s="13"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" ht="225.6" customHeight="1" spans="1:6">
       <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-    </row>
-    <row r="50" ht="32.4" customHeight="1" spans="1:6">
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" ht="60.6" customHeight="1" spans="1:6">
       <c r="A50" s="4"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-    </row>
-    <row r="51" ht="46.2" customHeight="1" spans="1:6">
+      <c r="B50" s="13"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" ht="225.6" customHeight="1" spans="1:6">
       <c r="A51" s="4"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
-    <row r="52" ht="234.6" customHeight="1" spans="1:6">
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" ht="60.6" customHeight="1" spans="1:6">
       <c r="A52" s="4"/>
-      <c r="B52" s="14"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
-      <c r="F52" s="5"/>
-    </row>
-    <row r="53" ht="60.6" customHeight="1" spans="1:6">
+      <c r="B52" s="13"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" ht="225.6" customHeight="1" spans="1:6">
       <c r="A53" s="4"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-    </row>
-    <row r="54" ht="234.6" customHeight="1" spans="1:6">
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" ht="60.6" customHeight="1" spans="1:6">
       <c r="A54" s="4"/>
-      <c r="B54" s="14"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
-      <c r="F54" s="5"/>
-    </row>
-    <row r="55" ht="51" customHeight="1" spans="1:6">
+      <c r="B54" s="13"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" ht="83.4" customHeight="1" spans="1:6">
       <c r="A55" s="4"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-    </row>
-    <row r="56" ht="234.6" customHeight="1" spans="1:6">
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" ht="60.6" customHeight="1" spans="1:6">
       <c r="A56" s="4"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="5"/>
-    </row>
-    <row r="57" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B56" s="13"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" ht="234.6" customHeight="1" spans="1:6">
       <c r="A57" s="4"/>
-      <c r="B57" s="13"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-    </row>
-    <row r="58" ht="216" customHeight="1" spans="1:6">
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" ht="60.6" customHeight="1" spans="1:6">
       <c r="A58" s="4"/>
-      <c r="B58" s="14"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="16"/>
-      <c r="E58" s="16"/>
-      <c r="F58" s="5"/>
-    </row>
-    <row r="59" ht="39.6" customHeight="1" spans="1:6">
+      <c r="B58" s="5"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" ht="32.4" customHeight="1" spans="1:6">
       <c r="A59" s="4"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-    </row>
-    <row r="60" ht="32.4" customHeight="1" spans="1:6">
+      <c r="B59" s="31"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="32"/>
+      <c r="E59" s="32"/>
+      <c r="F59" s="32"/>
+    </row>
+    <row r="60" ht="46.2" customHeight="1" spans="1:6">
       <c r="A60" s="4"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-    </row>
-    <row r="61" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B60" s="13"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" ht="234.6" customHeight="1" spans="1:6">
       <c r="A61" s="4"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="62" ht="216" customHeight="1" spans="1:6">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" ht="60.6" customHeight="1" spans="1:6">
       <c r="A62" s="4"/>
-      <c r="B62" s="14"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B62" s="13"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" ht="234.6" customHeight="1" spans="1:6">
       <c r="A63" s="4"/>
-      <c r="B63" s="13"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-    </row>
-    <row r="64" ht="116.4" customHeight="1" spans="1:6">
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" ht="51" customHeight="1" spans="1:6">
       <c r="A64" s="4"/>
-      <c r="B64" s="14"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
-      <c r="F64" s="5"/>
-    </row>
-    <row r="65" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B64" s="5"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" ht="234.6" customHeight="1" spans="1:6">
       <c r="A65" s="4"/>
-      <c r="B65" s="13"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-    </row>
-    <row r="66" ht="216" customHeight="1" spans="1:6">
+      <c r="B65" s="5"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" ht="82.2" customHeight="1" spans="1:6">
       <c r="A66" s="4"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16"/>
-      <c r="E66" s="16"/>
-      <c r="F66" s="5"/>
-    </row>
-    <row r="67" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B66" s="13"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" ht="216" customHeight="1" spans="1:6">
       <c r="A67" s="4"/>
-      <c r="B67" s="13"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-    </row>
-    <row r="68" ht="148.2" customHeight="1" spans="1:6">
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" ht="39.6" customHeight="1" spans="1:6">
       <c r="A68" s="4"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="5"/>
-    </row>
-    <row r="69" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B68" s="5"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" ht="32.4" customHeight="1" spans="1:6">
       <c r="A69" s="4"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-    </row>
-    <row r="70" ht="125.4" customHeight="1" spans="1:6">
+      <c r="B69" s="31"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="34"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="35"/>
+    </row>
+    <row r="70" ht="82.2" customHeight="1" spans="1:6">
       <c r="A70" s="4"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="5"/>
-    </row>
-    <row r="71" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B70" s="13"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" ht="216" customHeight="1" spans="1:6">
       <c r="A71" s="4"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" ht="125.4" customHeight="1" spans="1:6">
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" ht="82.2" customHeight="1" spans="1:6">
       <c r="A72" s="4"/>
-      <c r="B72" s="14"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="5"/>
-    </row>
-    <row r="73" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B72" s="13"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" ht="116.4" customHeight="1" spans="1:6">
       <c r="A73" s="4"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="5"/>
     </row>
     <row r="74" ht="82.2" customHeight="1" spans="1:6">
       <c r="A74" s="4"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-    </row>
-    <row r="75" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B74" s="13"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" ht="216" customHeight="1" spans="1:6">
       <c r="A75" s="4"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-    </row>
-    <row r="76" ht="148.2" customHeight="1" spans="1:6">
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" ht="82.2" customHeight="1" spans="1:6">
       <c r="A76" s="4"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
-      <c r="F76" s="5"/>
-    </row>
-    <row r="77" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B76" s="13"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" ht="148.2" customHeight="1" spans="1:6">
       <c r="A77" s="4"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
-    </row>
-    <row r="78" ht="148.2" customHeight="1" spans="1:6">
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" ht="82.2" customHeight="1" spans="1:6">
       <c r="A78" s="4"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="16"/>
-      <c r="E78" s="16"/>
-      <c r="F78" s="5"/>
-    </row>
-    <row r="79" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B78" s="13"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" ht="125.4" customHeight="1" spans="1:6">
       <c r="A79" s="4"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
-    </row>
-    <row r="80" ht="148.2" customHeight="1" spans="1:6">
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" ht="82.2" customHeight="1" spans="1:6">
       <c r="A80" s="4"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
-      <c r="E80" s="16"/>
-      <c r="F80" s="5"/>
-    </row>
-    <row r="81" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B80" s="13"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
+      <c r="F80" s="30"/>
+    </row>
+    <row r="81" ht="125.4" customHeight="1" spans="1:6">
       <c r="A81" s="4"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-    </row>
-    <row r="82" ht="148.2" customHeight="1" spans="1:6">
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" ht="82.2" customHeight="1" spans="1:6">
       <c r="A82" s="4"/>
-      <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
-      <c r="E82" s="16"/>
-      <c r="F82" s="5"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
+      <c r="F82" s="6"/>
     </row>
     <row r="83" ht="82.2" customHeight="1" spans="1:6">
       <c r="A83" s="4"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="34"/>
+      <c r="E83" s="34"/>
+      <c r="F83" s="35"/>
     </row>
     <row r="84" ht="82.2" customHeight="1" spans="1:6">
       <c r="A84" s="4"/>
-      <c r="B84" s="19"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-    </row>
-    <row r="85" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B84" s="13"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" ht="148.2" customHeight="1" spans="1:6">
       <c r="A85" s="4"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-    </row>
-    <row r="86" ht="206.4" customHeight="1" spans="1:6">
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" ht="82.2" customHeight="1" spans="1:6">
       <c r="A86" s="4"/>
-      <c r="B86" s="14"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="16"/>
-      <c r="F86" s="5"/>
-    </row>
-    <row r="87" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B86" s="13"/>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" ht="148.2" customHeight="1" spans="1:6">
       <c r="A87" s="4"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-    </row>
-    <row r="88" ht="106.8" customHeight="1" spans="1:6">
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" ht="82.2" customHeight="1" spans="1:6">
       <c r="A88" s="4"/>
-      <c r="B88" s="14"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="5"/>
-    </row>
-    <row r="89" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B88" s="13"/>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" ht="148.2" customHeight="1" spans="1:6">
       <c r="A89" s="4"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
-    </row>
-    <row r="90" ht="218.4" customHeight="1" spans="1:6">
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" ht="82.2" customHeight="1" spans="1:6">
       <c r="A90" s="4"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="16"/>
-      <c r="F90" s="5"/>
-    </row>
-    <row r="91" ht="82.2" customHeight="1" spans="1:6">
+      <c r="B90" s="13"/>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" ht="148.2" customHeight="1" spans="1:6">
       <c r="A91" s="4"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="5"/>
     </row>
     <row r="92" ht="82.2" customHeight="1" spans="1:6">
       <c r="A92" s="4"/>
@@ -10269,59 +11529,59 @@
     </row>
     <row r="93" ht="82.2" customHeight="1" spans="1:6">
       <c r="A93" s="4"/>
-      <c r="B93" s="5"/>
-      <c r="C93" s="6"/>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="6"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="33"/>
+      <c r="D93" s="34"/>
+      <c r="E93" s="34"/>
+      <c r="F93" s="35"/>
     </row>
     <row r="94" ht="82.2" customHeight="1" spans="1:6">
       <c r="A94" s="4"/>
-      <c r="B94" s="5"/>
+      <c r="B94" s="13"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
     </row>
-    <row r="95" ht="82.2" customHeight="1" spans="1:6">
+    <row r="95" ht="206.4" customHeight="1" spans="1:6">
       <c r="A95" s="4"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6"/>
-      <c r="E95" s="6"/>
-      <c r="F95" s="6"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="5"/>
     </row>
     <row r="96" ht="82.2" customHeight="1" spans="1:6">
       <c r="A96" s="4"/>
-      <c r="B96" s="5"/>
+      <c r="B96" s="13"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
     </row>
-    <row r="97" ht="82.2" customHeight="1" spans="1:6">
+    <row r="97" ht="106.8" customHeight="1" spans="1:6">
       <c r="A97" s="4"/>
-      <c r="B97" s="5"/>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6"/>
-      <c r="E97" s="6"/>
-      <c r="F97" s="6"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="5"/>
     </row>
     <row r="98" ht="82.2" customHeight="1" spans="1:6">
       <c r="A98" s="4"/>
-      <c r="B98" s="5"/>
+      <c r="B98" s="13"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
     </row>
-    <row r="99" ht="82.2" customHeight="1" spans="1:6">
+    <row r="99" ht="218.4" customHeight="1" spans="1:6">
       <c r="A99" s="4"/>
-      <c r="B99" s="5"/>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="6"/>
-      <c r="F99" s="6"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="5"/>
     </row>
     <row r="100" ht="82.2" customHeight="1" spans="1:6">
       <c r="A100" s="4"/>
@@ -10363,7 +11623,7 @@
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
     </row>
-    <row r="105" customHeight="1" spans="1:6">
+    <row r="105" ht="82.2" customHeight="1" spans="1:6">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="6"/>
@@ -10371,7 +11631,7 @@
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
     </row>
-    <row r="106" customHeight="1" spans="1:6">
+    <row r="106" ht="82.2" customHeight="1" spans="1:6">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="6"/>
@@ -10379,7 +11639,7 @@
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
     </row>
-    <row r="107" customHeight="1" spans="1:6">
+    <row r="107" ht="82.2" customHeight="1" spans="1:6">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="6"/>
@@ -10387,7 +11647,7 @@
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
     </row>
-    <row r="108" customHeight="1" spans="1:6">
+    <row r="108" ht="82.2" customHeight="1" spans="1:6">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="6"/>
@@ -10395,7 +11655,7 @@
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
     </row>
-    <row r="109" customHeight="1" spans="1:6">
+    <row r="109" ht="82.2" customHeight="1" spans="1:6">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="6"/>
@@ -10403,7 +11663,7 @@
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
     </row>
-    <row r="110" customHeight="1" spans="1:6">
+    <row r="110" ht="82.2" customHeight="1" spans="1:6">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="6"/>
@@ -10411,7 +11671,7 @@
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
     </row>
-    <row r="111" customHeight="1" spans="1:6">
+    <row r="111" ht="82.2" customHeight="1" spans="1:6">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="6"/>
@@ -10419,7 +11679,7 @@
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
     </row>
-    <row r="112" customHeight="1" spans="1:6">
+    <row r="112" ht="82.2" customHeight="1" spans="1:6">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="6"/>
@@ -10427,7 +11687,7 @@
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
     </row>
-    <row r="113" customHeight="1" spans="1:6">
+    <row r="113" ht="82.2" customHeight="1" spans="1:6">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="6"/>
@@ -10691,8 +11951,80 @@
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
     </row>
+    <row r="146" customHeight="1" spans="1:6">
+      <c r="A146" s="4"/>
+      <c r="B146" s="5"/>
+      <c r="C146" s="6"/>
+      <c r="D146" s="6"/>
+      <c r="E146" s="6"/>
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" customHeight="1" spans="1:6">
+      <c r="A147" s="4"/>
+      <c r="B147" s="5"/>
+      <c r="C147" s="6"/>
+      <c r="D147" s="6"/>
+      <c r="E147" s="6"/>
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" customHeight="1" spans="1:6">
+      <c r="A148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="6"/>
+      <c r="D148" s="6"/>
+      <c r="E148" s="6"/>
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" customHeight="1" spans="1:6">
+      <c r="A149" s="4"/>
+      <c r="B149" s="5"/>
+      <c r="C149" s="6"/>
+      <c r="D149" s="6"/>
+      <c r="E149" s="6"/>
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" customHeight="1" spans="1:6">
+      <c r="A150" s="4"/>
+      <c r="B150" s="5"/>
+      <c r="C150" s="6"/>
+      <c r="D150" s="6"/>
+      <c r="E150" s="6"/>
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" customHeight="1" spans="1:6">
+      <c r="A151" s="4"/>
+      <c r="B151" s="5"/>
+      <c r="C151" s="6"/>
+      <c r="D151" s="6"/>
+      <c r="E151" s="6"/>
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" customHeight="1" spans="1:6">
+      <c r="A152" s="4"/>
+      <c r="B152" s="5"/>
+      <c r="C152" s="6"/>
+      <c r="D152" s="6"/>
+      <c r="E152" s="6"/>
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" customHeight="1" spans="1:6">
+      <c r="A153" s="4"/>
+      <c r="B153" s="5"/>
+      <c r="C153" s="6"/>
+      <c r="D153" s="6"/>
+      <c r="E153" s="6"/>
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" customHeight="1" spans="1:6">
+      <c r="A154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="6"/>
+      <c r="D154" s="6"/>
+      <c r="E154" s="6"/>
+      <c r="F154" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="77">
+  <mergeCells count="86">
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C5:F5"/>
     <mergeCell ref="C7:F7"/>
@@ -10703,75 +12035,85 @@
     <mergeCell ref="C17:F17"/>
     <mergeCell ref="C19:F19"/>
     <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C52:F52"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C62:F62"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C68:F68"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C74:F74"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C78:F78"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C84:F84"/>
-    <mergeCell ref="C86:F86"/>
-    <mergeCell ref="C88:F88"/>
-    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C53:F53"/>
+    <mergeCell ref="C55:F55"/>
+    <mergeCell ref="C57:F57"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C65:F65"/>
+    <mergeCell ref="C67:F67"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C79:F79"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:F85"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C89:F89"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C95:F95"/>
+    <mergeCell ref="C97:F97"/>
+    <mergeCell ref="C99:F99"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="B66:B67"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="B72:B73"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="B94:B95"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>